--- a/_byStatesV2.xlsx
+++ b/_byStatesV2.xlsx
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimator</t>
+    <t xml:space="preserve">Estimate</t>
   </si>
   <si>
     <t xml:space="preserve">LCL</t>
@@ -628,9 +628,6 @@
     <t xml:space="preserve">EPI : First dose measles vaccine for children below 12 months</t>
   </si>
   <si>
-    <t xml:space="preserve">EPI : Second dose measles vaccine for children below 12 months</t>
-  </si>
-  <si>
     <t xml:space="preserve">EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
   </si>
   <si>
@@ -4413,7 +4410,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.838374823814775</v>
@@ -4493,20 +4490,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.713617639045373</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0568567999352178</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0107696710469454</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.10294392882349</v>
       </c>
     </row>
   </sheetData>
@@ -7841,7 +7824,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.985161359251665</v>
@@ -7921,20 +7904,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.0737727326726637</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.521256663113987</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.387821909755679</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.654691416472295</v>
       </c>
     </row>
   </sheetData>
@@ -11235,7 +11204,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.520658329046254</v>
@@ -11315,20 +11284,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.976238117172439</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0448201712654097</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0000666591513565212</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0895736833794628</v>
       </c>
     </row>
   </sheetData>
@@ -14663,7 +14618,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.924235294237719</v>
@@ -14743,20 +14698,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.167448500566687</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.221516613946993</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0700828521041181</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.372950375789868</v>
       </c>
     </row>
   </sheetData>
@@ -18091,7 +18032,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.950318655805425</v>
@@ -18171,20 +18112,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.6200003553439</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0940589378184579</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0240087988232439</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.164109076813672</v>
       </c>
     </row>
   </sheetData>
@@ -21489,7 +21416,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.762351022436637</v>
@@ -21569,20 +21496,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.576076152849765</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0814423983306291</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.00237507113443841</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.165259867795697</v>
       </c>
     </row>
   </sheetData>
@@ -24897,7 +24810,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.80278127273885</v>
@@ -24977,20 +24890,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.642407516551871</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.00122197521343788</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.000217092162654804</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.00222685826422095</v>
       </c>
     </row>
   </sheetData>
@@ -28323,7 +28222,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.562230190734849</v>
@@ -28403,20 +28302,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.70148415651532</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0551305655197858</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.00170052359310703</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.108560607446465</v>
       </c>
     </row>
   </sheetData>
@@ -31749,7 +31634,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.692044010744592</v>
@@ -31829,20 +31714,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.342808973880257</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0630060901887984</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0199653249846484</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.106046855392949</v>
       </c>
     </row>
   </sheetData>
@@ -35179,7 +35050,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.710432688496197</v>
@@ -35259,20 +35130,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.541563260172464</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.192296700356756</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0248395934682221</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.35975380724529</v>
       </c>
     </row>
   </sheetData>
@@ -38607,7 +38464,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.963796110277005</v>
@@ -38687,20 +38544,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.376430443274311</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0886462588809265</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.0245455182457031</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.15274699951615</v>
       </c>
     </row>
   </sheetData>
@@ -42033,7 +41876,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.866356275465069</v>
@@ -42113,20 +41956,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.271425561084785</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.033564774496406</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.00970952698893839</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0768390759817503</v>
       </c>
     </row>
   </sheetData>
@@ -43181,12 +43010,14 @@
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75"/>
-      <c r="C75" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D75" t="e">
-        <v>#NUM!</v>
+      <c r="B75" t="n">
+        <v>1.58928570024172</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.37083041420661</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.80774098627683</v>
       </c>
     </row>
     <row r="76">
@@ -43194,13 +43025,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>0.324756468310876</v>
+        <v>0.196673411236502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0145506758284758</v>
+        <v>0.0748498646064495</v>
       </c>
       <c r="D76" t="n">
-        <v>0.634962260793277</v>
+        <v>0.318496957866554</v>
       </c>
     </row>
     <row r="77">
@@ -43208,13 +43039,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0797209739585181</v>
+        <v>0.0376452045464911</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00324977966175823</v>
+        <v>0.00804234111156077</v>
       </c>
       <c r="D77" t="n">
-        <v>0.156192168255278</v>
+        <v>0.0672480679814214</v>
       </c>
     </row>
     <row r="78">
@@ -43222,13 +43053,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193022272536093</v>
+        <v>0.28790804483655</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0997900959316857</v>
+        <v>0.132569859773667</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2862544491405</v>
+        <v>0.443246229899434</v>
       </c>
     </row>
     <row r="79">
@@ -43236,13 +43067,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>0.452118632404137</v>
+        <v>0.358094024597267</v>
       </c>
       <c r="C79" t="n">
-        <v>0.261328939299133</v>
+        <v>0.161191594080433</v>
       </c>
       <c r="D79" t="n">
-        <v>0.642908325509141</v>
+        <v>0.5549964551141</v>
       </c>
     </row>
     <row r="80">
@@ -43250,13 +43081,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5994857240586</v>
+        <v>0.711606915308175</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389427341461292</v>
+        <v>0.556766695170876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.809544106655907</v>
+        <v>0.866447135445474</v>
       </c>
     </row>
     <row r="81">
@@ -43264,13 +43095,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>0.138352669669959</v>
+        <v>0.025370313926796</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0766864184166351</v>
+        <v>0.00609146933615223</v>
       </c>
       <c r="D81" t="n">
-        <v>0.353391757756553</v>
+        <v>0.0446491585174398</v>
       </c>
     </row>
     <row r="82">
@@ -43278,13 +43109,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123456704351395</v>
+        <v>0.130928216014067</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0292256511621078</v>
+        <v>0.0400221409528997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217687757540683</v>
+        <v>0.221834291075235</v>
       </c>
     </row>
     <row r="83">
@@ -43292,13 +43123,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>0.192191462914072</v>
+        <v>0.190578295623268</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.0449477211502795</v>
+        <v>-0.0471523222110534</v>
       </c>
       <c r="D83" t="n">
-        <v>0.429330646978423</v>
+        <v>0.428308913457589</v>
       </c>
     </row>
     <row r="84">
@@ -43306,13 +43137,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>0.880477370818743</v>
+        <v>0.995909800191549</v>
       </c>
       <c r="C84" t="n">
-        <v>0.656418046478169</v>
+        <v>0.99220757330342</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10453669515932</v>
+        <v>0.999612027079677</v>
       </c>
     </row>
     <row r="85">
@@ -43320,13 +43151,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>0.240699049148926</v>
+        <v>0.119408275404254</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00546067109117337</v>
+        <v>0.0130419870665172</v>
       </c>
       <c r="D85" t="n">
-        <v>0.47593742720668</v>
+        <v>0.22577456374199</v>
       </c>
     </row>
     <row r="86">
@@ -43334,13 +43165,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>0.193786357993098</v>
+        <v>0.201063804417779</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0270036443155622</v>
+        <v>-0.0162023196490226</v>
       </c>
       <c r="D86" t="n">
-        <v>0.414576360301758</v>
+        <v>0.41832992848458</v>
       </c>
     </row>
     <row r="87">
@@ -43348,13 +43179,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0626970813675959</v>
+        <v>0.0666875478237956</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0316417362353139</v>
+        <v>0.0346838895508173</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0937524264998778</v>
+        <v>0.0986912060967739</v>
       </c>
     </row>
     <row r="88">
@@ -43362,13 +43193,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0356886069150041</v>
+        <v>0.024420694034124</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.00200053532934864</v>
+        <v>-0.00949561040823373</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0733777491593569</v>
+        <v>0.0583369984764818</v>
       </c>
     </row>
     <row r="89">
@@ -43376,13 +43207,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>0.586235467900415</v>
+        <v>0.693407995581208</v>
       </c>
       <c r="C89" t="n">
-        <v>0.38968135388919</v>
+        <v>0.564097101794035</v>
       </c>
       <c r="D89" t="n">
-        <v>0.78278958191164</v>
+        <v>0.822718889368381</v>
       </c>
     </row>
     <row r="90">
@@ -43390,13 +43221,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>0.109786221476748</v>
+        <v>0.00261369379595518</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0986193910276474</v>
+        <v>-0.000182957542751997</v>
       </c>
       <c r="D90" t="n">
-        <v>0.318191833981144</v>
+        <v>0.00541034513466237</v>
       </c>
     </row>
     <row r="91">
@@ -43404,13 +43235,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0655367421543638</v>
+        <v>0.0671741675999169</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00532767536624863</v>
+        <v>0.00776229089007697</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125745808942479</v>
+        <v>0.126586044309757</v>
       </c>
     </row>
     <row r="92">
@@ -43418,13 +43249,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0379462766103</v>
+        <v>0.036308851164747</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0244191542938221</v>
+        <v>-0.0265086612236029</v>
       </c>
       <c r="D92" t="n">
-        <v>0.100311707514422</v>
+        <v>0.0991263635530968</v>
       </c>
     </row>
     <row r="93">
@@ -43432,13 +43263,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>0.242883259771257</v>
+        <v>0.244460039829937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.107473307976952</v>
+        <v>0.110460785246897</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378293211565561</v>
+        <v>0.378459294412978</v>
       </c>
     </row>
     <row r="94">
@@ -43446,13 +43277,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>2.20433411570952</v>
+        <v>2.45364730114169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.56424549645778</v>
+        <v>2.17790383141783</v>
       </c>
       <c r="D94" t="n">
-        <v>2.84442273496125</v>
+        <v>2.72939077086555</v>
       </c>
     </row>
     <row r="95">
@@ -43460,13 +43291,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>0.266836528309153</v>
+        <v>0.0159465628182974</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.21921644881249</v>
+        <v>-0.000639322391604833</v>
       </c>
       <c r="D95" t="n">
-        <v>0.752889505430796</v>
+        <v>0.0325324480281997</v>
       </c>
     </row>
     <row r="96">
@@ -43474,13 +43305,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>0.664730420241311</v>
+        <v>0.771902947922104</v>
       </c>
       <c r="C96" t="n">
-        <v>0.458233507490769</v>
+        <v>0.661547433017299</v>
       </c>
       <c r="D96" t="n">
-        <v>0.871227332991852</v>
+        <v>0.882258462826909</v>
       </c>
     </row>
     <row r="97">
@@ -43488,13 +43319,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>0.207367400463162</v>
+        <v>0.101808040073174</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0108529370036651</v>
+        <v>0.0254700632985082</v>
       </c>
       <c r="D97" t="n">
-        <v>0.40388186392266</v>
+        <v>0.178146016847839</v>
       </c>
     </row>
     <row r="98">
@@ -43502,13 +43333,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>0.717609395405875</v>
+        <v>0.823908629515707</v>
       </c>
       <c r="C98" t="n">
-        <v>0.497695715512303</v>
+        <v>0.707000547603159</v>
       </c>
       <c r="D98" t="n">
-        <v>0.937523075299447</v>
+        <v>0.940816711428254</v>
       </c>
     </row>
     <row r="99">
@@ -43516,13 +43347,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>0.412623801478674</v>
+        <v>0.31229207343708</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179635221760967</v>
+        <v>0.104400602524325</v>
       </c>
       <c r="D99" t="n">
-        <v>0.64561238119638</v>
+        <v>0.520183544349836</v>
       </c>
     </row>
     <row r="100">
@@ -43530,13 +43361,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>0.26529935836302</v>
+        <v>0.259319723217408</v>
       </c>
       <c r="C100" t="n">
-        <v>0.129604917847152</v>
+        <v>0.118769344228022</v>
       </c>
       <c r="D100" t="n">
-        <v>0.400993798878888</v>
+        <v>0.399870102206794</v>
       </c>
     </row>
     <row r="101">
@@ -43544,13 +43375,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502297053598123</v>
+        <v>0.509829210647667</v>
       </c>
       <c r="C101" t="n">
-        <v>0.310507702426479</v>
+        <v>0.327942163937972</v>
       </c>
       <c r="D101" t="n">
-        <v>0.694086404769767</v>
+        <v>0.691716257357363</v>
       </c>
     </row>
     <row r="102">
@@ -43558,13 +43389,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>0.631784016540066</v>
+        <v>0.729580767410395</v>
       </c>
       <c r="C102" t="n">
-        <v>0.44467185763819</v>
+        <v>0.606606981340041</v>
       </c>
       <c r="D102" t="n">
-        <v>0.818896175441941</v>
+        <v>0.85255455348075</v>
       </c>
     </row>
     <row r="103">
@@ -43572,13 +43403,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>0.349217422810494</v>
+        <v>0.243148641170777</v>
       </c>
       <c r="C103" t="n">
-        <v>0.161529542122247</v>
+        <v>0.109717181388492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.53690530349874</v>
+        <v>0.376580100953062</v>
       </c>
     </row>
     <row r="104">
@@ -43586,13 +43417,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>0.668953772239649</v>
+        <v>0.775447071587471</v>
       </c>
       <c r="C104" t="n">
-        <v>0.449732505551494</v>
+        <v>0.642291372216324</v>
       </c>
       <c r="D104" t="n">
-        <v>0.888175038927803</v>
+        <v>0.908602770958619</v>
       </c>
     </row>
     <row r="105">
@@ -43614,13 +43445,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>0.842102703571012</v>
+        <v>0.842745544671859</v>
       </c>
       <c r="C106" t="n">
-        <v>0.730629731923529</v>
+        <v>0.731100739118403</v>
       </c>
       <c r="D106" t="n">
-        <v>0.953575675218495</v>
+        <v>0.954390350225315</v>
       </c>
     </row>
     <row r="107">
@@ -43628,13 +43459,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>0.776922963023021</v>
+        <v>0.776643994243409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.645214890095225</v>
+        <v>0.645067142327844</v>
       </c>
       <c r="D107" t="n">
-        <v>0.908631035950818</v>
+        <v>0.908220846158973</v>
       </c>
     </row>
     <row r="108">
@@ -43642,13 +43473,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>0.861931624970229</v>
+        <v>0.86907565154379</v>
       </c>
       <c r="C108" t="n">
-        <v>0.75109614109428</v>
+        <v>0.756456069869225</v>
       </c>
       <c r="D108" t="n">
-        <v>0.972767108846178</v>
+        <v>0.981695233218355</v>
       </c>
     </row>
     <row r="109">
@@ -43656,13 +43487,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>0.825629098150898</v>
+        <v>0.819843528243277</v>
       </c>
       <c r="C109" t="n">
-        <v>0.70857432597284</v>
+        <v>0.705360474370577</v>
       </c>
       <c r="D109" t="n">
-        <v>0.942683870328955</v>
+        <v>0.934326582115977</v>
       </c>
     </row>
     <row r="110">
@@ -43670,13 +43501,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>0.729033486031651</v>
+        <v>0.728135934305941</v>
       </c>
       <c r="C110" t="n">
-        <v>0.596788848325605</v>
+        <v>0.596495748557687</v>
       </c>
       <c r="D110" t="n">
-        <v>0.861278123737697</v>
+        <v>0.859776120054194</v>
       </c>
     </row>
     <row r="111">
@@ -43684,13 +43515,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>0.228984281768936</v>
+        <v>0.122503111498487</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0320861230510451</v>
+        <v>0.0406072218607942</v>
       </c>
       <c r="D111" t="n">
-        <v>0.425882440486826</v>
+        <v>0.204399001136181</v>
       </c>
     </row>
     <row r="112">
@@ -43698,13 +43529,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>0.392978001510092</v>
+        <v>0.414749695397261</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228446731358393</v>
+        <v>0.274477566598352</v>
       </c>
       <c r="D112" t="n">
-        <v>0.55750927166179</v>
+        <v>0.555021824196169</v>
       </c>
     </row>
     <row r="113">
@@ -43712,13 +43543,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>122.795846052124</v>
+        <v>139.518678062319</v>
       </c>
       <c r="C113" t="n">
-        <v>89.7827370202772</v>
+        <v>138.208801571932</v>
       </c>
       <c r="D113" t="n">
-        <v>155.80895508397</v>
+        <v>140.828554552706</v>
       </c>
     </row>
     <row r="114">
@@ -43726,13 +43557,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>16.8327241916702</v>
+        <v>0.105319519304344</v>
       </c>
       <c r="C114" t="n">
-        <v>-15.8077066485034</v>
+        <v>0.0710569494322055</v>
       </c>
       <c r="D114" t="n">
-        <v>49.4731550318438</v>
+        <v>0.139582089176483</v>
       </c>
     </row>
     <row r="115">
@@ -43740,13 +43571,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0912512908244189</v>
+        <v>0.0871637917492234</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0615848042304287</v>
+        <v>0.0612113015150425</v>
       </c>
       <c r="D115" t="n">
-        <v>0.120917777418409</v>
+        <v>0.113116281983404</v>
       </c>
     </row>
     <row r="116">
@@ -43754,13 +43585,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>0.027647925954829</v>
+        <v>0.0172047903354127</v>
       </c>
       <c r="C116" t="n">
-        <v>0.00119469804458174</v>
+        <v>0.00790517978159495</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0541011538650763</v>
+        <v>0.0265044008892304</v>
       </c>
     </row>
     <row r="117">
@@ -43768,13 +43599,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.3682835071628</v>
+        <v>-1.65251630635607</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.830451729539</v>
+        <v>-1.96783968788232</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.906115284786604</v>
+        <v>-1.33719292482982</v>
       </c>
     </row>
     <row r="118">
@@ -43782,13 +43613,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0719426927267292</v>
+        <v>0.419501404892089</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.573916826600755</v>
+        <v>0.343936400626118</v>
       </c>
       <c r="D118" t="n">
-        <v>0.717802212054213</v>
+        <v>0.495066409158061</v>
       </c>
     </row>
     <row r="119">
@@ -43796,13 +43627,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>0.247288671879355</v>
+        <v>0.209555112167387</v>
       </c>
       <c r="C119" t="n">
-        <v>0.161515507162412</v>
+        <v>0.187945181982665</v>
       </c>
       <c r="D119" t="n">
-        <v>0.333061836596297</v>
+        <v>0.231165042352109</v>
       </c>
     </row>
     <row r="120">
@@ -43810,13 +43641,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>0.201903869787523</v>
+        <v>0.209338994218071</v>
       </c>
       <c r="C120" t="n">
-        <v>0.14580028340069</v>
+        <v>0.148848676704469</v>
       </c>
       <c r="D120" t="n">
-        <v>0.258007456174356</v>
+        <v>0.269829311731674</v>
       </c>
     </row>
     <row r="121">
@@ -43824,13 +43655,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.27891128443947</v>
+        <v>-1.56056059015197</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.73628577653913</v>
+        <v>-1.76583241508135</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.821536792339801</v>
+        <v>-1.35528876522259</v>
       </c>
     </row>
     <row r="122">
@@ -43838,13 +43669,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>0.035567980885684</v>
+        <v>0.336417616081971</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.520027832176628</v>
+        <v>0.27170519675272</v>
       </c>
       <c r="D122" t="n">
-        <v>0.591163793947996</v>
+        <v>0.401130035411222</v>
       </c>
     </row>
     <row r="123">
@@ -43852,13 +43683,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>0.247396733337049</v>
+        <v>0.225673555759379</v>
       </c>
       <c r="C123" t="n">
-        <v>0.181788705977859</v>
+        <v>0.19207557096814</v>
       </c>
       <c r="D123" t="n">
-        <v>0.31300476069624</v>
+        <v>0.259271540550617</v>
       </c>
     </row>
     <row r="124">
@@ -43866,13 +43697,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>0.122622676105585</v>
+        <v>0.108358881113211</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0697805224432087</v>
+        <v>0.0746535848078687</v>
       </c>
       <c r="D124" t="n">
-        <v>0.175464829767961</v>
+        <v>0.142064177418554</v>
       </c>
     </row>
     <row r="125">
@@ -43880,13 +43711,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.691539491129478</v>
+        <v>-0.820386680078444</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.939909645013664</v>
+        <v>-0.922585172174525</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.443169337245291</v>
+        <v>-0.718188187982362</v>
       </c>
     </row>
     <row r="126">
@@ -43894,13 +43725,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0341717557097178</v>
+        <v>0.164607853794739</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.216341028021288</v>
+        <v>0.140659867425358</v>
       </c>
       <c r="D126" t="n">
-        <v>0.284684539440724</v>
+        <v>0.18855584016412</v>
       </c>
     </row>
     <row r="127">
@@ -43908,13 +43739,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>0.131211896888096</v>
+        <v>0.126481556712054</v>
       </c>
       <c r="C127" t="n">
-        <v>0.11251759160891</v>
+        <v>0.113365283755573</v>
       </c>
       <c r="D127" t="n">
-        <v>0.149906202167283</v>
+        <v>0.139597829668535</v>
       </c>
     </row>
     <row r="128">
@@ -43922,13 +43753,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0496585942971232</v>
+        <v>0.0364742871910773</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0216068524132326</v>
+        <v>0.0241966282633174</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0777103361810139</v>
+        <v>0.0487519461188372</v>
       </c>
     </row>
     <row r="129">
@@ -43936,13 +43767,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>0.00634152914527792</v>
+        <v>0.00335777611115897</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.00180469269553244</v>
+        <v>0.000384301134267634</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0144877509860883</v>
+        <v>0.00633125108805031</v>
       </c>
     </row>
     <row r="130">
@@ -43950,13 +43781,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0203839863382302</v>
+        <v>0.0223852841050173</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0122098502709623</v>
+        <v>0.014599341190224</v>
       </c>
       <c r="D130" t="n">
-        <v>0.028558122405498</v>
+        <v>0.0301712270198105</v>
       </c>
     </row>
     <row r="131">
@@ -43964,13 +43795,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>0.00932282336486959</v>
+        <v>0.00602371431901449</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00328427281911535</v>
+        <v>0.00186281515788102</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0153613739106238</v>
+        <v>0.010184613480148</v>
       </c>
     </row>
     <row r="132">
@@ -43978,13 +43809,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>0.12795505348664</v>
+        <v>0.160570142546582</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0397230539003571</v>
+        <v>0.0754831662400697</v>
       </c>
       <c r="D132" t="n">
-        <v>0.216187053072922</v>
+        <v>0.245657118853095</v>
       </c>
     </row>
     <row r="133">
@@ -43992,13 +43823,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>0.212940823050689</v>
+        <v>0.281967402388783</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0840433822765162</v>
+        <v>0.0850246030965696</v>
       </c>
       <c r="D133" t="n">
-        <v>0.341838263824863</v>
+        <v>0.478910201680996</v>
       </c>
     </row>
     <row r="134">
@@ -44006,13 +43837,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292535807012299</v>
+        <v>0.199918172180866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.125559635499238</v>
+        <v>0.121262722575235</v>
       </c>
       <c r="D134" t="n">
-        <v>0.45951197852536</v>
+        <v>0.278573621786498</v>
       </c>
     </row>
     <row r="135">
@@ -44020,13 +43851,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>0.479419508460061</v>
+        <v>0.540744123665368</v>
       </c>
       <c r="C135" t="n">
-        <v>0.294450706339086</v>
+        <v>0.390448095243653</v>
       </c>
       <c r="D135" t="n">
-        <v>0.664388310581036</v>
+        <v>0.691040152087082</v>
       </c>
     </row>
     <row r="136">
@@ -44034,13 +43865,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>0.591309922721814</v>
+        <v>0.559798579702948</v>
       </c>
       <c r="C136" t="n">
-        <v>0.440714159251482</v>
+        <v>0.395210139998389</v>
       </c>
       <c r="D136" t="n">
-        <v>0.741905686192146</v>
+        <v>0.724387019407507</v>
       </c>
     </row>
     <row r="137">
@@ -44048,13 +43879,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>0.614407839910003</v>
+        <v>0.613243448482054</v>
       </c>
       <c r="C137" t="n">
-        <v>0.469905652313403</v>
+        <v>0.467467338335806</v>
       </c>
       <c r="D137" t="n">
-        <v>0.758910027506602</v>
+        <v>0.759019558628301</v>
       </c>
     </row>
     <row r="138">
@@ -44062,13 +43893,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>0.436090930834756</v>
+        <v>0.405998689868703</v>
       </c>
       <c r="C138" t="n">
-        <v>0.289839491275505</v>
+        <v>0.236631762006677</v>
       </c>
       <c r="D138" t="n">
-        <v>0.582342370394008</v>
+        <v>0.575365617730729</v>
       </c>
     </row>
     <row r="139">
@@ -44076,13 +43907,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>0.417949457431121</v>
+        <v>0.520221837852629</v>
       </c>
       <c r="C139" t="n">
-        <v>0.216347115264488</v>
+        <v>0.308907769009365</v>
       </c>
       <c r="D139" t="n">
-        <v>0.619551799597754</v>
+        <v>0.731535906695893</v>
       </c>
     </row>
     <row r="140">
@@ -44090,13 +43921,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>0.734872802335068</v>
+        <v>0.734521059091209</v>
       </c>
       <c r="C140" t="n">
-        <v>0.599996717880048</v>
+        <v>0.599875912610403</v>
       </c>
       <c r="D140" t="n">
-        <v>0.869748886790088</v>
+        <v>0.869166205572014</v>
       </c>
     </row>
     <row r="141">
@@ -44104,13 +43935,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>0.109501310536691</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.104084964050792</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.323087585124174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -44160,13 +43991,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0534368616441758</v>
+        <v>0.0568087451542777</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0153964320111047</v>
+        <v>0.0207340960923778</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0914772912772469</v>
+        <v>0.0928833942161775</v>
       </c>
     </row>
     <row r="146">
@@ -44174,13 +44005,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>0.252820434379418</v>
+        <v>0.319299907468873</v>
       </c>
       <c r="C146" t="n">
-        <v>0.12396583003189</v>
+        <v>0.190955845118237</v>
       </c>
       <c r="D146" t="n">
-        <v>0.381675038726946</v>
+        <v>0.447643969819509</v>
       </c>
     </row>
     <row r="147">
@@ -44188,13 +44019,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>0.622238717334131</v>
+        <v>0.599824182346115</v>
       </c>
       <c r="C147" t="n">
-        <v>0.499101668147928</v>
+        <v>0.463832748845216</v>
       </c>
       <c r="D147" t="n">
-        <v>0.745375766520334</v>
+        <v>0.735815615847014</v>
       </c>
     </row>
     <row r="148">
@@ -44202,13 +44033,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>0.491769358515043</v>
+        <v>0.444332536903501</v>
       </c>
       <c r="C148" t="n">
-        <v>0.365564990864457</v>
+        <v>0.270383946419433</v>
       </c>
       <c r="D148" t="n">
-        <v>0.617973726165628</v>
+        <v>0.618281127387569</v>
       </c>
     </row>
     <row r="149">
@@ -44216,13 +44047,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>0.00817800546268097</v>
+        <v>0.00903916995626815</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.00286018285447838</v>
+        <v>-0.00173035464191946</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0192161937798403</v>
+        <v>0.0198086945544558</v>
       </c>
     </row>
     <row r="150">
@@ -44230,13 +44061,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>0.430976229229904</v>
+        <v>0.430115064736317</v>
       </c>
       <c r="C150" t="n">
-        <v>0.254426306088163</v>
+        <v>0.252476552399846</v>
       </c>
       <c r="D150" t="n">
-        <v>0.607526152371645</v>
+        <v>0.607753577072788</v>
       </c>
     </row>
     <row r="151">
@@ -44258,13 +44089,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>0.00718456220007196</v>
+        <v>0.0314427169490065</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00183502321530097</v>
+        <v>-0.0141431300633202</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0125341011848429</v>
+        <v>0.0770285639613333</v>
       </c>
     </row>
     <row r="153">
@@ -44272,13 +44103,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>0.198717006471098</v>
+        <v>0.174458851722163</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0420303940861122</v>
+        <v>0.0106227033083537</v>
       </c>
       <c r="D153" t="n">
-        <v>0.355403618856084</v>
+        <v>0.338295000135973</v>
       </c>
     </row>
     <row r="154">
@@ -44300,13 +44131,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>0.000480876461317834</v>
+        <v>0.00586618681558131</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.000469790494502417</v>
+        <v>-0.00456614410447757</v>
       </c>
       <c r="D155" t="n">
-        <v>0.00143154341713808</v>
+        <v>0.0162985177356402</v>
       </c>
     </row>
     <row r="156">
@@ -44314,13 +44145,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0924562681477052</v>
+        <v>0.0870709577934417</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0360300217247683</v>
+        <v>0.0278990693133301</v>
       </c>
       <c r="D156" t="n">
-        <v>0.148882514570642</v>
+        <v>0.146242846273553</v>
       </c>
     </row>
     <row r="157">
@@ -44328,13 +44159,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0364021066286948</v>
+        <v>0.125150565777672</v>
       </c>
       <c r="C157" t="n">
-        <v>0.00234109338528266</v>
+        <v>-0.0426800685193325</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0704631198721069</v>
+        <v>0.292981200074676</v>
       </c>
     </row>
     <row r="158">
@@ -44342,13 +44173,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>0.163981405094786</v>
+        <v>0.112917989348279</v>
       </c>
       <c r="C158" t="n">
-        <v>0.00750423693359911</v>
+        <v>0.0489388081718057</v>
       </c>
       <c r="D158" t="n">
-        <v>0.320458573255973</v>
+        <v>0.176897170524752</v>
       </c>
     </row>
     <row r="159">
@@ -44356,13 +44187,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>0.431591375653064</v>
+        <v>0.395155627220164</v>
       </c>
       <c r="C159" t="n">
-        <v>0.263190306371763</v>
+        <v>0.198559097767059</v>
       </c>
       <c r="D159" t="n">
-        <v>0.599992444934365</v>
+        <v>0.59175215667327</v>
       </c>
     </row>
     <row r="160">
@@ -44384,13 +44215,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0684166135431922</v>
+        <v>0.069399068810524</v>
       </c>
       <c r="C161" t="n">
-        <v>0.00517576711903804</v>
+        <v>0.0065982513875195</v>
       </c>
       <c r="D161" t="n">
-        <v>0.131657459967346</v>
+        <v>0.132199886233529</v>
       </c>
     </row>
     <row r="162">
@@ -44398,13 +44229,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0113434200031418</v>
+        <v>0.0255708277633919</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001988457967478</v>
+        <v>-0.00550761608075481</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0206983820388056</v>
+        <v>0.0566492716075387</v>
       </c>
     </row>
     <row r="163">
@@ -44412,13 +44243,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>0.159793197695336</v>
+        <v>0.155281180912035</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0607842859971554</v>
+        <v>0.0555263116663216</v>
       </c>
       <c r="D163" t="n">
-        <v>0.258802109393518</v>
+        <v>0.255036050157748</v>
       </c>
     </row>
     <row r="164">
@@ -44426,13 +44257,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>0.253561098110358</v>
+        <v>0.354244569395811</v>
       </c>
       <c r="C164" t="n">
-        <v>0.137597748022327</v>
+        <v>0.164249774129855</v>
       </c>
       <c r="D164" t="n">
-        <v>0.36952444819839</v>
+        <v>0.544239364661767</v>
       </c>
     </row>
     <row r="165">
@@ -44440,13 +44271,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>0.677937569258991</v>
+        <v>0.657633493734133</v>
       </c>
       <c r="C165" t="n">
-        <v>0.526294257523113</v>
+        <v>0.518429201737621</v>
       </c>
       <c r="D165" t="n">
-        <v>0.829580880994869</v>
+        <v>0.796837785730644</v>
       </c>
     </row>
     <row r="166">
@@ -44454,13 +44285,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>0.679362014097568</v>
+        <v>0.591644526525421</v>
       </c>
       <c r="C166" t="n">
-        <v>0.594439317414964</v>
+        <v>0.419844215468412</v>
       </c>
       <c r="D166" t="n">
-        <v>0.764284710780173</v>
+        <v>0.763444837582429</v>
       </c>
     </row>
     <row r="167">
@@ -44468,13 +44299,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>0.187838645680783</v>
+        <v>0.304520370023158</v>
       </c>
       <c r="C167" t="n">
-        <v>0.125201275152736</v>
+        <v>0.109706634164407</v>
       </c>
       <c r="D167" t="n">
-        <v>0.25047601620883</v>
+        <v>0.499334105881909</v>
       </c>
     </row>
     <row r="168">
@@ -44482,13 +44313,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>0.669228362867958</v>
+        <v>1.12204320848895</v>
       </c>
       <c r="C168" t="n">
-        <v>0.532076319821333</v>
+        <v>0.143731956969718</v>
       </c>
       <c r="D168" t="n">
-        <v>0.806380405914583</v>
+        <v>2.10035446000817</v>
       </c>
     </row>
     <row r="169">
@@ -44496,13 +44327,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>3.83146277623784</v>
+        <v>3.26234220767309</v>
       </c>
       <c r="C169" t="n">
-        <v>3.49554219572453</v>
+        <v>2.36298627824285</v>
       </c>
       <c r="D169" t="n">
-        <v>4.16738335675116</v>
+        <v>4.16169813710333</v>
       </c>
     </row>
     <row r="170">
@@ -44510,13 +44341,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0937795259933414</v>
+        <v>0.113574180268472</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0703536369418254</v>
+        <v>0.0824121119525488</v>
       </c>
       <c r="D170" t="n">
-        <v>0.117205415044857</v>
+        <v>0.144736248584395</v>
       </c>
     </row>
     <row r="171">
@@ -44524,13 +44355,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>0.18590932030668</v>
+        <v>0.161129615230644</v>
       </c>
       <c r="C171" t="n">
-        <v>0.152151384989026</v>
+        <v>0.107344509224533</v>
       </c>
       <c r="D171" t="n">
-        <v>0.219667255624335</v>
+        <v>0.214914721236755</v>
       </c>
     </row>
     <row r="172">
@@ -44734,13 +44565,13 @@
         <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>0.212620244655137</v>
+        <v>0.333911018399809</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0420816859232188</v>
+        <v>0.0918505358665573</v>
       </c>
       <c r="D186" t="n">
-        <v>0.383158803387054</v>
+        <v>0.575971500933062</v>
       </c>
     </row>
     <row r="187">
@@ -44748,13 +44579,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>0.803828457628751</v>
+        <v>1.31594236253351</v>
       </c>
       <c r="C187" t="n">
-        <v>0.681862713447968</v>
+        <v>0.259676142878685</v>
       </c>
       <c r="D187" t="n">
-        <v>0.925794201809534</v>
+        <v>2.37220858218833</v>
       </c>
     </row>
     <row r="188">
@@ -44762,13 +44593,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>4.80449517743578</v>
+        <v>4.20141319222252</v>
       </c>
       <c r="C188" t="n">
-        <v>4.42876217803494</v>
+        <v>3.07629351690568</v>
       </c>
       <c r="D188" t="n">
-        <v>5.18022817683663</v>
+        <v>5.32653286753937</v>
       </c>
     </row>
     <row r="189">
@@ -44776,13 +44607,13 @@
         <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>0.47794436598949</v>
+        <v>0.46143669168284</v>
       </c>
       <c r="C189" t="n">
-        <v>0.352548333176067</v>
+        <v>0.317562648327032</v>
       </c>
       <c r="D189" t="n">
-        <v>0.603340398802914</v>
+        <v>0.605310735038648</v>
       </c>
     </row>
     <row r="190">
@@ -44790,13 +44621,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="n">
-        <v>0.340154570155925</v>
+        <v>0.34150089774449</v>
       </c>
       <c r="C190" t="n">
-        <v>0.197238792343399</v>
+        <v>0.199608041746307</v>
       </c>
       <c r="D190" t="n">
-        <v>0.48307034796845</v>
+        <v>0.483393753742674</v>
       </c>
     </row>
     <row r="191">
@@ -44818,13 +44649,13 @@
         <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>0.520819295121593</v>
+        <v>0.520552455419355</v>
       </c>
       <c r="C192" t="n">
-        <v>0.349478333166806</v>
+        <v>0.348886998270063</v>
       </c>
       <c r="D192" t="n">
-        <v>0.692160257076379</v>
+        <v>0.692217912568646</v>
       </c>
     </row>
     <row r="193">
@@ -44832,13 +44663,13 @@
         <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>0.411264009242978</v>
+        <v>0.411530848945216</v>
       </c>
       <c r="C193" t="n">
-        <v>0.286560975693251</v>
+        <v>0.28716278505262</v>
       </c>
       <c r="D193" t="n">
-        <v>0.535967042792705</v>
+        <v>0.535898912837813</v>
       </c>
     </row>
     <row r="194">
@@ -44846,13 +44677,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>0.490272172657204</v>
+        <v>0.486997321766098</v>
       </c>
       <c r="C194" t="n">
-        <v>0.313918994909923</v>
+        <v>0.306999590513889</v>
       </c>
       <c r="D194" t="n">
-        <v>0.666625350404485</v>
+        <v>0.666995053018307</v>
       </c>
     </row>
     <row r="195">
@@ -44860,13 +44691,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>0.383433530726314</v>
+        <v>0.373875817755233</v>
       </c>
       <c r="C195" t="n">
-        <v>0.260669210686639</v>
+        <v>0.238374961828876</v>
       </c>
       <c r="D195" t="n">
-        <v>0.506197850765988</v>
+        <v>0.509376673681591</v>
       </c>
     </row>
     <row r="196">
@@ -44874,13 +44705,13 @@
         <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>0.193760238270185</v>
+        <v>0.191431455414287</v>
       </c>
       <c r="C196" t="n">
-        <v>0.136243015035853</v>
+        <v>0.130135882019169</v>
       </c>
       <c r="D196" t="n">
-        <v>0.251277461504517</v>
+        <v>0.252727028809406</v>
       </c>
     </row>
     <row r="197">
@@ -44888,13 +44719,13 @@
         <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0548450543481015</v>
+        <v>0.0570161591981311</v>
       </c>
       <c r="C197" t="n">
-        <v>0.018980457733754</v>
+        <v>0.0224803103676916</v>
       </c>
       <c r="D197" t="n">
-        <v>0.090709650962449</v>
+        <v>0.0915520080285707</v>
       </c>
     </row>
     <row r="198">
@@ -44902,13 +44733,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>0.169041193783287</v>
+        <v>0.177082772082558</v>
       </c>
       <c r="C198" t="n">
-        <v>0.107758541580568</v>
+        <v>0.125212421437751</v>
       </c>
       <c r="D198" t="n">
-        <v>0.230323845986005</v>
+        <v>0.228953122727365</v>
       </c>
     </row>
     <row r="199">
@@ -44916,13 +44747,13 @@
         <v>201</v>
       </c>
       <c r="B199" t="n">
-        <v>0.396577696147239</v>
+        <v>1.92502338149073</v>
       </c>
       <c r="C199" t="n">
-        <v>0.274909714229314</v>
+        <v>-0.976410987547877</v>
       </c>
       <c r="D199" t="n">
-        <v>0.518245678065164</v>
+        <v>4.82645775052934</v>
       </c>
     </row>
     <row r="200">
@@ -44930,13 +44761,13 @@
         <v>202</v>
       </c>
       <c r="B200" t="n">
-        <v>12.435516030587</v>
+        <v>10.8968576620942</v>
       </c>
       <c r="C200" t="n">
-        <v>11.9447995274541</v>
+        <v>7.90924678650281</v>
       </c>
       <c r="D200" t="n">
-        <v>12.9262325337198</v>
+        <v>13.8844685376855</v>
       </c>
     </row>
     <row r="201">
@@ -44986,13 +44817,13 @@
         <v>206</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0108473017497808</v>
+        <v>1.54084550899721</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.00694877755615816</v>
+        <v>-1.44130325168942</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0286433810557198</v>
+        <v>4.52299426968384</v>
       </c>
     </row>
     <row r="205">
@@ -45000,13 +44831,13 @@
         <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>11.5028624219237</v>
+        <v>9.99019666624438</v>
       </c>
       <c r="C205" t="n">
-        <v>10.9545787689104</v>
+        <v>7.30147840894349</v>
       </c>
       <c r="D205" t="n">
-        <v>12.051146074937</v>
+        <v>12.6789149235453</v>
       </c>
     </row>
     <row r="206">
@@ -45028,13 +44859,13 @@
         <v>209</v>
       </c>
       <c r="B207" t="n">
-        <v>0.138558619127491</v>
+        <v>0.121226167559378</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0921096750453947</v>
+        <v>0.0655738887057459</v>
       </c>
       <c r="D207" t="n">
-        <v>0.185007563209588</v>
+        <v>0.176878446413009</v>
       </c>
     </row>
     <row r="208">
@@ -45056,13 +44887,13 @@
         <v>211</v>
       </c>
       <c r="B209" t="n">
-        <v>0.00429312766356372</v>
+        <v>0.118306454983556</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.00394518544798455</v>
+        <v>-0.102957915830653</v>
       </c>
       <c r="D209" t="n">
-        <v>0.012531440775112</v>
+        <v>0.339570825797765</v>
       </c>
     </row>
     <row r="210">
@@ -45070,13 +44901,13 @@
         <v>212</v>
       </c>
       <c r="B210" t="n">
-        <v>0.89081497027957</v>
+        <v>0.776801642959577</v>
       </c>
       <c r="C210" t="n">
-        <v>0.828811576696675</v>
+        <v>0.559550300903146</v>
       </c>
       <c r="D210" t="n">
-        <v>0.952818363862464</v>
+        <v>0.994052985016008</v>
       </c>
     </row>
     <row r="211">
@@ -45098,13 +44929,13 @@
         <v>214</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0119981713700789</v>
+        <v>0.019372650413755</v>
       </c>
       <c r="C212" t="n">
-        <v>0.000425949079465743</v>
+        <v>0.00401221777722666</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0235703936606921</v>
+        <v>0.0347330830502834</v>
       </c>
     </row>
     <row r="213">
@@ -45112,13 +44943,13 @@
         <v>215</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0873967082026361</v>
+        <v>30.3949287976528</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0231965215436741</v>
+        <v>-28.7142886354368</v>
       </c>
       <c r="D213" t="n">
-        <v>0.151596894861598</v>
+        <v>89.5041462307423</v>
       </c>
     </row>
     <row r="214">
@@ -45126,13 +44957,13 @@
         <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>250.575299191138</v>
+        <v>220.275699518291</v>
       </c>
       <c r="C214" t="n">
-        <v>247.678417217815</v>
+        <v>160.962703410444</v>
       </c>
       <c r="D214" t="n">
-        <v>253.472181164461</v>
+        <v>279.588695626137</v>
       </c>
     </row>
     <row r="215">
@@ -45140,13 +44971,13 @@
         <v>217</v>
       </c>
       <c r="B215" t="n">
-        <v>0.197169434425025</v>
+        <v>0.387244205960302</v>
       </c>
       <c r="C215" t="n">
-        <v>0.134790546912572</v>
+        <v>0.0313221895980385</v>
       </c>
       <c r="D215" t="n">
-        <v>0.259548321937478</v>
+        <v>0.743166222322565</v>
       </c>
     </row>
     <row r="216">
@@ -45154,13 +44985,13 @@
         <v>218</v>
       </c>
       <c r="B216" t="n">
-        <v>2.13816353442553</v>
+        <v>1.93278186724368</v>
       </c>
       <c r="C216" t="n">
-        <v>1.70612916119627</v>
+        <v>1.27753384716487</v>
       </c>
       <c r="D216" t="n">
-        <v>2.5701979076548</v>
+        <v>2.58802988732249</v>
       </c>
     </row>
     <row r="217">
@@ -45168,13 +44999,13 @@
         <v>219</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0538805073502957</v>
+        <v>0.0679381080273033</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.0435323571690834</v>
+        <v>-0.0305448801861938</v>
       </c>
       <c r="D217" t="n">
-        <v>0.151293371869675</v>
+        <v>0.1664210962408</v>
       </c>
     </row>
     <row r="218">
@@ -45182,13 +45013,13 @@
         <v>220</v>
       </c>
       <c r="B218" t="n">
-        <v>0.434479928954743</v>
+        <v>0.427554225773922</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2867677931477</v>
+        <v>0.272114236478711</v>
       </c>
       <c r="D218" t="n">
-        <v>0.582192064761786</v>
+        <v>0.582994215069133</v>
       </c>
     </row>
     <row r="219">
@@ -45196,13 +45027,13 @@
         <v>221</v>
       </c>
       <c r="B219" t="n">
-        <v>0.255929043017346</v>
+        <v>0.353471083262812</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0939983086425215</v>
+        <v>0.14321258275411</v>
       </c>
       <c r="D219" t="n">
-        <v>0.41785977739217</v>
+        <v>0.563729583771513</v>
       </c>
     </row>
     <row r="220">
@@ -45210,13 +45041,13 @@
         <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>0.813277767800587</v>
+        <v>0.711951455414287</v>
       </c>
       <c r="C220" t="n">
-        <v>0.729824632854875</v>
+        <v>0.511025793568366</v>
       </c>
       <c r="D220" t="n">
-        <v>0.896730902746298</v>
+        <v>0.912877117260208</v>
       </c>
     </row>
     <row r="221">
@@ -45224,13 +45055,13 @@
         <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>0.192876543308723</v>
+        <v>0.266136170650505</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0618665308895929</v>
+        <v>0.101486288706246</v>
       </c>
       <c r="D221" t="n">
-        <v>0.323886555727852</v>
+        <v>0.430786052594764</v>
       </c>
     </row>
     <row r="222">
@@ -45238,13 +45069,13 @@
         <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>0.442409968227264</v>
+        <v>0.365802715530128</v>
       </c>
       <c r="C222" t="n">
-        <v>0.305514952023814</v>
+        <v>0.202623874590279</v>
       </c>
       <c r="D222" t="n">
-        <v>0.579304984430714</v>
+        <v>0.528981556469978</v>
       </c>
     </row>
     <row r="223">
@@ -45266,13 +45097,13 @@
         <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0660444903440273</v>
+        <v>0.0866760509579961</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.0142652271092178</v>
+        <v>0.00444550709243691</v>
       </c>
       <c r="D224" t="n">
-        <v>0.146354207797272</v>
+        <v>0.168906594823555</v>
       </c>
     </row>
     <row r="225">
@@ -45280,13 +45111,13 @@
         <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>0.172920330091872</v>
+        <v>0.207500329686479</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0641286162712253</v>
+        <v>0.0764502791896941</v>
       </c>
       <c r="D225" t="n">
-        <v>0.281712043912519</v>
+        <v>0.338550380183263</v>
       </c>
     </row>
     <row r="226">
@@ -45294,13 +45125,13 @@
         <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>0.137947987777378</v>
+        <v>0.128863308823902</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0365730168754858</v>
+        <v>0.042008441180748</v>
       </c>
       <c r="D226" t="n">
-        <v>0.23932295867927</v>
+        <v>0.215718176467056</v>
       </c>
     </row>
     <row r="227">
@@ -45308,13 +45139,13 @@
         <v>229</v>
       </c>
       <c r="B227" t="n">
-        <v>0.567478530852999</v>
+        <v>0.5213516495979</v>
       </c>
       <c r="C227" t="n">
-        <v>0.394185746274237</v>
+        <v>0.300349212022674</v>
       </c>
       <c r="D227" t="n">
-        <v>0.740771315431761</v>
+        <v>0.742354087173126</v>
       </c>
     </row>
     <row r="228">
@@ -45364,13 +45195,13 @@
         <v>233</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0601153829704215</v>
+        <v>0.0609522893092597</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.0155316832191212</v>
+        <v>-0.0143856182946496</v>
       </c>
       <c r="D231" t="n">
-        <v>0.135762449159964</v>
+        <v>0.136290196913169</v>
       </c>
     </row>
     <row r="232">
@@ -45378,13 +45209,13 @@
         <v>234</v>
       </c>
       <c r="B232" t="n">
-        <v>0.134218449571549</v>
+        <v>0.133381543232711</v>
       </c>
       <c r="C232" t="n">
-        <v>0.022062218552774</v>
+        <v>0.0208074843492351</v>
       </c>
       <c r="D232" t="n">
-        <v>0.246374680590325</v>
+        <v>0.245955602116187</v>
       </c>
     </row>
     <row r="233">
@@ -45434,13 +45265,13 @@
         <v>238</v>
       </c>
       <c r="B236" t="n">
-        <v>0.025108763396997</v>
+        <v>0.14639953714167</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.0173758496401604</v>
+        <v>-0.0869038841193649</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0675933764341545</v>
+        <v>0.379702958402705</v>
       </c>
     </row>
     <row r="237">
@@ -45448,27 +45279,27 @@
         <v>239</v>
       </c>
       <c r="B237" t="n">
-        <v>0.987320470358115</v>
+        <v>0.86686660295228</v>
       </c>
       <c r="C237" t="n">
-        <v>0.970231815554047</v>
+        <v>0.634020890074759</v>
       </c>
       <c r="D237" t="n">
-        <v>1.00440912516218</v>
+        <v>1.0997123158298</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
-        <v>0.628909332975236</v>
+        <v>0.74936320038107</v>
       </c>
       <c r="C238" t="n">
-        <v>0.418786014685926</v>
+        <v>0.599613285303494</v>
       </c>
       <c r="D238" t="n">
-        <v>0.839032651264545</v>
+        <v>0.899113115458647</v>
       </c>
     </row>
     <row r="239">
@@ -45476,13 +45307,13 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>0.986973132325592</v>
+        <v>0.866519264919757</v>
       </c>
       <c r="C239" t="n">
-        <v>0.969527893390667</v>
+        <v>0.633694162459833</v>
       </c>
       <c r="D239" t="n">
-        <v>1.00441837126052</v>
+        <v>1.09934436737968</v>
       </c>
     </row>
     <row r="240">
@@ -45490,13 +45321,13 @@
         <v>240</v>
       </c>
       <c r="B240" t="n">
-        <v>0.629904920770856</v>
+        <v>0.648607958082285</v>
       </c>
       <c r="C240" t="n">
-        <v>0.418797579202781</v>
+        <v>0.464386948810088</v>
       </c>
       <c r="D240" t="n">
-        <v>0.841012262338932</v>
+        <v>0.832828967354481</v>
       </c>
     </row>
     <row r="241">
@@ -45504,13 +45335,13 @@
         <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>0.328495552526363</v>
+        <v>0.321084686250564</v>
       </c>
       <c r="C241" t="n">
-        <v>0.133175751395952</v>
+        <v>0.121505313276518</v>
       </c>
       <c r="D241" t="n">
-        <v>0.523815353656775</v>
+        <v>0.52066405922461</v>
       </c>
     </row>
     <row r="242">
@@ -45518,13 +45349,13 @@
         <v>242</v>
       </c>
       <c r="B242" t="n">
-        <v>0.266918095460097</v>
+        <v>0.356151717704052</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0913162448102955</v>
+        <v>0.147602510245085</v>
       </c>
       <c r="D242" t="n">
-        <v>0.442519946109898</v>
+        <v>0.56470092516302</v>
       </c>
     </row>
     <row r="243">
@@ -45532,27 +45363,13 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>0.555427373099083</v>
+        <v>0.459838114310907</v>
       </c>
       <c r="C243" t="n">
-        <v>0.353497507398548</v>
+        <v>0.245198635338967</v>
       </c>
       <c r="D243" t="n">
-        <v>0.757357238799619</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0487370487333979</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.0109927746893208</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.108466872156116</v>
+        <v>0.674477593282846</v>
       </c>
     </row>
   </sheetData>
@@ -48887,7 +48704,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.77837782831013</v>
@@ -48967,20 +48784,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.62686974435666</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.112755854114274</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.0112611985637476</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.236772906792295</v>
       </c>
     </row>
   </sheetData>
@@ -52315,7 +52118,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.652421423517</v>
@@ -52395,20 +52198,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.689746377569906</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0998550978539356</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.0222783978207365</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.221988593528608</v>
       </c>
     </row>
   </sheetData>
@@ -55743,7 +55532,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.938965202666442</v>
@@ -55823,20 +55612,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.0818978979578731</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.388401805523657</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.219128876483438</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.557674734563877</v>
       </c>
     </row>
   </sheetData>
@@ -59107,7 +58882,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.683072744837813</v>
@@ -59187,20 +58962,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.498545828826943</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0325719564010016</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.000609055039855914</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0657529678418592</v>
       </c>
     </row>
   </sheetData>
@@ -62535,7 +62296,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B238" t="n">
         <v>0.746587326955185</v>
@@ -62615,20 +62376,6 @@
       </c>
       <c r="D243" t="n">
         <v>0.774429152444405</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0.0473047312564164</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.00659518440374902</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0880142781090838</v>
       </c>
     </row>
   </sheetData>
